--- a/UIAutomation/TestData/TestData.xlsx
+++ b/UIAutomation/TestData/TestData.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
